--- a/target/classes/Testdatafiles/STGAMO.xlsx
+++ b/target/classes/Testdatafiles/STGAMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CaseIcon" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,30 +33,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
-  <si>
-    <t xml:space="preserve">CaseIconText</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+  <si>
+    <t xml:space="preserve">Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runmode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Precharge Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestData</t>
   </si>
   <si>
     <t xml:space="preserve">RunMode</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Precharge Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestData</t>
-  </si>
-  <si>
     <t xml:space="preserve">CaseFiletype</t>
   </si>
   <si>
     <t xml:space="preserve">Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">Basic_Details</t>
@@ -450,36 +456,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A30:B32"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.81"/>
   </cols>
   <sheetData>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -503,19 +513,19 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -523,7 +533,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -551,31 +561,31 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="42.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -603,31 +613,31 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -658,25 +668,25 @@
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -700,35 +710,31 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -749,22 +755,22 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -772,15 +778,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -788,7 +794,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -796,7 +802,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -804,7 +810,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -820,7 +826,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -828,7 +834,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -836,7 +842,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -844,7 +850,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -852,7 +858,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -877,31 +883,31 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +932,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.12"/>
@@ -934,33 +940,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -968,33 +974,33 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -1002,19 +1008,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1039,95 +1045,95 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1152,151 +1158,151 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1327,61 +1333,61 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1403,79 +1409,79 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1500,57 +1506,57 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/Testdatafiles/STGAMO.xlsx
+++ b/target/classes/Testdatafiles/STGAMO.xlsx
@@ -10,18 +10,18 @@
   <sheets>
     <sheet name="DCF01" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Casefiletype" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Person" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Basic_Details" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Contact_Details" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Descriptive_details_Inc_Disabilities" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Victim_Witness_Info" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Offence" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Pre_charge_details" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Mg3" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="CPS" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Case_details" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Create_Prepare_Precharge" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="CaseIcon" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Basic_Details" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Contact_Details" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Victim_Witness_Info" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Offence" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Pre_charge_details" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Mg3" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CPS" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Case_details" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Create_Prepare_Precharge" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="CaseIcon" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Person" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Descriptive_details_Inc_Disabilities" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
   <si>
     <t xml:space="preserve">TestData</t>
   </si>
@@ -95,247 +95,232 @@
     <t xml:space="preserve">Link type</t>
   </si>
   <si>
-    <t xml:space="preserve">Forename</t>
+    <t xml:space="preserve">First Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defandant1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defandant2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victim2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premise Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“9517538426”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“01”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cm1 1ag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“9517538427”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“02”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“9517538425”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“03”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“9517538428”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“04”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trail Hearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key_witness_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason_for_No_Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date_Qualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the defect or test script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factual summary of evidence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidential information to the Prosecutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disclosure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIC Contact Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor e-mail address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor Contact Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“9874561231”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub File Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCD Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCF Placeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CardName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runmode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offence(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police Witness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Charge details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media Manger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create/Prepare Pre Charge Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forename 1</t>
   </si>
   <si>
     <t xml:space="preserve">Surname</t>
   </si>
   <si>
-    <t xml:space="preserve">DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defandant1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith</t>
+    <t xml:space="preserve">Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defandant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smithpara</t>
   </si>
   <si>
     <t xml:space="preserve">01/06/1990</t>
   </si>
   <si>
-    <t xml:space="preserve">Defandant2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/06/1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/06/1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victim2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/06/1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Premise Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">postcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“9517538426”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“01”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cm1 1ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“9517538427”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“02”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“9517538425”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“03”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“9517538428”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“04”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethnic_Appearance</t>
+    <t xml:space="preserve">Ethnic Appearance</t>
   </si>
   <si>
     <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trail Hearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key_witness_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason_for_No_Investigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date_Qualifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test the defect or test script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factual summary of evidence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confidential information to the Prosecutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disclosure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIC Contact Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor e-mail address </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor Contact Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“9874561231”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor@test.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub File Type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPS Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCD Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JCF Placeholder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CardName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runmode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defendant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offence(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Police Witness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre Charge details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media Manger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create/Prepare Pre Charge Decision</t>
   </si>
 </sst>
 </file>
@@ -437,15 +422,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,6 +436,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -477,10 +462,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -602,39 +587,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="A1:B8 O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -654,90 +633,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A1:B8 G1"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Supervisor@test.com"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="A1:B8 J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -750,38 +672,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="A1:B8 C17"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -794,91 +771,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -893,25 +840,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.39"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -919,13 +869,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -939,105 +889,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="A1:B8 F3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.12"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="46.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1052,7 +935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1060,10 +943,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:B8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
@@ -1077,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,47 +994,47 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1173,10 +1056,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="1" sqref="A1:B8 L1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1186,25 +1069,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,25 +1098,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,83 +1127,83 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1340,18 +1223,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A1:B8 H1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1360,8 +1243,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,8 +1257,11 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,30 +1271,39 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1419,87 +1317,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B8"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>70</v>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1513,68 +1392,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="1" sqref="A1:B8 K1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1588,40 +1440,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A1:B8 H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="42.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1634,4 +1490,59 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Supervisor@test.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>